--- a/HW7/data.xlsx
+++ b/HW7/data.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C242D50-D263-4B77-95E6-6A7ABC3321F5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{747CAF2C-11FE-4782-9D42-93ECE5F3D70D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -17,6 +18,10 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -341,8 +346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B272"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2528,4 +2533,4024 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F05D645-1356-4352-B1A5-C546757CE455}">
+  <dimension ref="A1:B500"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>-1.7587999999999999</v>
+      </c>
+      <c r="B1">
+        <v>5.0869999999999997</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2.0802999999999998</v>
+      </c>
+      <c r="B2">
+        <v>5.7221000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>-1.4196</v>
+      </c>
+      <c r="B3">
+        <v>7.4752000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>-2.3277000000000001</v>
+      </c>
+      <c r="B4">
+        <v>11.385</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>-0.34305999999999998</v>
+      </c>
+      <c r="B5">
+        <v>2.5308999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>-2.4182999999999999</v>
+      </c>
+      <c r="B6">
+        <v>7.4634</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1.9006000000000001</v>
+      </c>
+      <c r="B7">
+        <v>5.9507000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>-0.95245999999999997</v>
+      </c>
+      <c r="B8">
+        <v>7.7556000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>-0.89410999999999996</v>
+      </c>
+      <c r="B9">
+        <v>10.034000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>-0.12773000000000001</v>
+      </c>
+      <c r="B10">
+        <v>6.3261000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0.54944000000000004</v>
+      </c>
+      <c r="B11">
+        <v>6.7283999999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>-1.3748</v>
+      </c>
+      <c r="B12">
+        <v>3.8793000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>-1.2267999999999999</v>
+      </c>
+      <c r="B13">
+        <v>5.4311999999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>3.8262</v>
+      </c>
+      <c r="B14">
+        <v>7.3167</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0.26740999999999998</v>
+      </c>
+      <c r="B15">
+        <v>6.5726000000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>-1.5812999999999999</v>
+      </c>
+      <c r="B16">
+        <v>7.2724000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2.2210999999999999</v>
+      </c>
+      <c r="B17">
+        <v>6.6802999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1.8442000000000001</v>
+      </c>
+      <c r="B18">
+        <v>4.2630999999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>-2.1193</v>
+      </c>
+      <c r="B19">
+        <v>7.1608999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1.7986</v>
+      </c>
+      <c r="B20">
+        <v>8.7196999999999996</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>0.72541</v>
+      </c>
+      <c r="B21">
+        <v>8.9318000000000008</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>0.14965000000000001</v>
+      </c>
+      <c r="B22">
+        <v>4.1779999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1.5133000000000001</v>
+      </c>
+      <c r="B23">
+        <v>5.9718</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>-0.20541000000000001</v>
+      </c>
+      <c r="B24">
+        <v>4.9058000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="B25">
+        <v>11.332000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>-0.82774000000000003</v>
+      </c>
+      <c r="B26">
+        <v>7.6113999999999997</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1.8389</v>
+      </c>
+      <c r="B27">
+        <v>7.1273999999999997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2.3018000000000001</v>
+      </c>
+      <c r="B28">
+        <v>5.57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>-3.3534000000000002</v>
+      </c>
+      <c r="B29">
+        <v>4.0681000000000003</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>-1.3199000000000001</v>
+      </c>
+      <c r="B30">
+        <v>4.7995000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>2.9817999999999998</v>
+      </c>
+      <c r="B31">
+        <v>6.4344000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>0.93547000000000002</v>
+      </c>
+      <c r="B32">
+        <v>5.5347</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>0.51846000000000003</v>
+      </c>
+      <c r="B33">
+        <v>6.3094000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>-0.91230999999999995</v>
+      </c>
+      <c r="B34">
+        <v>8.2162000000000006</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>1.9441999999999999</v>
+      </c>
+      <c r="B35">
+        <v>1.7045999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>2.1897000000000002</v>
+      </c>
+      <c r="B36">
+        <v>5.0640999999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>-1.3601000000000001</v>
+      </c>
+      <c r="B37">
+        <v>9.8696000000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>-1.8812</v>
+      </c>
+      <c r="B38">
+        <v>5.1193999999999997</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>-0.52636000000000005</v>
+      </c>
+      <c r="B39">
+        <v>5.2937000000000003</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>1.2989999999999999</v>
+      </c>
+      <c r="B40">
+        <v>6.0904999999999996</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>-6.6056000000000004E-2</v>
+      </c>
+      <c r="B41">
+        <v>5.8297999999999996</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>0.22366</v>
+      </c>
+      <c r="B42">
+        <v>6.6867999999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>2.0137999999999998</v>
+      </c>
+      <c r="B43">
+        <v>3.9556</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>-0.66012999999999999</v>
+      </c>
+      <c r="B44">
+        <v>5.9032999999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>-9.2247999999999997E-2</v>
+      </c>
+      <c r="B45">
+        <v>4.8131000000000004</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>1.0317000000000001</v>
+      </c>
+      <c r="B46">
+        <v>5.4240000000000004</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>1.5749</v>
+      </c>
+      <c r="B47">
+        <v>6.0822000000000003</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>0.45562000000000002</v>
+      </c>
+      <c r="B48">
+        <v>7.9156000000000004</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>1.0967</v>
+      </c>
+      <c r="B49">
+        <v>6.3841999999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>1.0226999999999999</v>
+      </c>
+      <c r="B50">
+        <v>8.7673000000000005</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>0.99467000000000005</v>
+      </c>
+      <c r="B51">
+        <v>8.6523000000000003</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>-0.87990000000000002</v>
+      </c>
+      <c r="B52">
+        <v>9.5546000000000006</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>-1.0697000000000001</v>
+      </c>
+      <c r="B53">
+        <v>7.9009</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>-0.84277999999999997</v>
+      </c>
+      <c r="B54">
+        <v>7.3642000000000003</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>-0.37090000000000001</v>
+      </c>
+      <c r="B55">
+        <v>6.85</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>2.1953999999999998</v>
+      </c>
+      <c r="B56">
+        <v>6.4283000000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>-1.5101</v>
+      </c>
+      <c r="B57">
+        <v>7.6581000000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>-0.54495000000000005</v>
+      </c>
+      <c r="B58">
+        <v>5.8555000000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>-1.9543999999999999</v>
+      </c>
+      <c r="B59">
+        <v>4.9752999999999998</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>1.5219</v>
+      </c>
+      <c r="B60">
+        <v>7.5381999999999998</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>-1.0799000000000001</v>
+      </c>
+      <c r="B61">
+        <v>7.3971999999999998</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>2.2031999999999998</v>
+      </c>
+      <c r="B62">
+        <v>5.6242000000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>-0.38989000000000001</v>
+      </c>
+      <c r="B63">
+        <v>7.5903999999999998</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>-0.58855000000000002</v>
+      </c>
+      <c r="B64">
+        <v>9.9693000000000005</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>1.1202000000000001</v>
+      </c>
+      <c r="B65">
+        <v>9.3879999999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>1.7884</v>
+      </c>
+      <c r="B66">
+        <v>4.7401999999999997</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>0.61734999999999995</v>
+      </c>
+      <c r="B67">
+        <v>6.5936000000000003</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>1.5442</v>
+      </c>
+      <c r="B68">
+        <v>7.9973000000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>0.73629</v>
+      </c>
+      <c r="B69">
+        <v>7.2460000000000004</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>-1.2286999999999999</v>
+      </c>
+      <c r="B70">
+        <v>8.2324999999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>-2.0478000000000001</v>
+      </c>
+      <c r="B71">
+        <v>7.9256000000000002</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>-1.2663</v>
+      </c>
+      <c r="B72">
+        <v>8.5801999999999996</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>1.2949999999999999</v>
+      </c>
+      <c r="B73">
+        <v>4.1440000000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>-1.2515000000000001</v>
+      </c>
+      <c r="B74">
+        <v>9.7051999999999996</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>-0.55915999999999999</v>
+      </c>
+      <c r="B75">
+        <v>4.7247000000000003</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>-0.95277000000000001</v>
+      </c>
+      <c r="B76">
+        <v>9.0008999999999997</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>0.82821</v>
+      </c>
+      <c r="B77">
+        <v>6.7522000000000002</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>-1.8351</v>
+      </c>
+      <c r="B78">
+        <v>9.3712999999999997</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>0.67032000000000003</v>
+      </c>
+      <c r="B79">
+        <v>6.5118</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>2.8325999999999998</v>
+      </c>
+      <c r="B80">
+        <v>8.0934000000000008</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>-0.69076000000000004</v>
+      </c>
+      <c r="B81">
+        <v>4.6694000000000004</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>-1.3492</v>
+      </c>
+      <c r="B82">
+        <v>10.773999999999999</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>-1.5449999999999999</v>
+      </c>
+      <c r="B83">
+        <v>10.509</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>0.59184999999999999</v>
+      </c>
+      <c r="B84">
+        <v>3.7191000000000001</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>-1.4391</v>
+      </c>
+      <c r="B85">
+        <v>5.7325999999999997</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>-1.5461</v>
+      </c>
+      <c r="B86">
+        <v>7.3573000000000004</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>-0.33873999999999999</v>
+      </c>
+      <c r="B87">
+        <v>7.6154999999999999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>-1.8661000000000001E-2</v>
+      </c>
+      <c r="B88">
+        <v>8.0380000000000003</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>-1.6383000000000001</v>
+      </c>
+      <c r="B89">
+        <v>6.1317000000000004</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>-1.5712999999999999</v>
+      </c>
+      <c r="B90">
+        <v>7.0997000000000003</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>-1.4832000000000001</v>
+      </c>
+      <c r="B91">
+        <v>5.63</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>-1.0379</v>
+      </c>
+      <c r="B92">
+        <v>6.2826000000000004</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>-0.77693000000000001</v>
+      </c>
+      <c r="B93">
+        <v>9.6425999999999998</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>-2.9590000000000001</v>
+      </c>
+      <c r="B94">
+        <v>5.6407999999999996</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>-0.65842000000000001</v>
+      </c>
+      <c r="B95">
+        <v>6.9238</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>-0.61495999999999995</v>
+      </c>
+      <c r="B96">
+        <v>6.6904000000000003</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>-0.78519000000000005</v>
+      </c>
+      <c r="B97">
+        <v>6.6001000000000003</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>-0.83423000000000003</v>
+      </c>
+      <c r="B98">
+        <v>6.4787999999999997</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>-1.8292999999999999</v>
+      </c>
+      <c r="B99">
+        <v>7.6673999999999998</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>1.8664000000000001</v>
+      </c>
+      <c r="B100">
+        <v>6.5743999999999998</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>-1.0185</v>
+      </c>
+      <c r="B101">
+        <v>10.362</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>-0.82782999999999995</v>
+      </c>
+      <c r="B102">
+        <v>6.0049999999999999</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>-0.31925999999999999</v>
+      </c>
+      <c r="B103">
+        <v>5.5834000000000001</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>-1.1706000000000001</v>
+      </c>
+      <c r="B104">
+        <v>4.2967000000000004</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>2.0697999999999999</v>
+      </c>
+      <c r="B105">
+        <v>4.6959999999999997</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>9.4080999999999998E-2</v>
+      </c>
+      <c r="B106">
+        <v>4.5109000000000004</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>0.86560999999999999</v>
+      </c>
+      <c r="B107">
+        <v>8.1121999999999996</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>-0.28867999999999999</v>
+      </c>
+      <c r="B108">
+        <v>6.1459000000000001</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>-0.42503999999999997</v>
+      </c>
+      <c r="B109">
+        <v>6.8117000000000001</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>-1.7434000000000001</v>
+      </c>
+      <c r="B110">
+        <v>3.4870999999999999</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>-0.82467999999999997</v>
+      </c>
+      <c r="B111">
+        <v>8.0782000000000007</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>0.63758000000000004</v>
+      </c>
+      <c r="B112">
+        <v>5.9676999999999998</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>2.0918000000000001</v>
+      </c>
+      <c r="B113">
+        <v>7.3068999999999997</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>0.57142000000000004</v>
+      </c>
+      <c r="B114">
+        <v>3.0806</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>0.1356</v>
+      </c>
+      <c r="B115">
+        <v>8.8301999999999996</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>-1.2971999999999999</v>
+      </c>
+      <c r="B116">
+        <v>7.6037999999999997</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>1.3387</v>
+      </c>
+      <c r="B117">
+        <v>8.5568000000000008</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>-0.35426000000000002</v>
+      </c>
+      <c r="B118">
+        <v>8.7316000000000003</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>-2.2292000000000001</v>
+      </c>
+      <c r="B119">
+        <v>8.4252000000000002</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>-1.1988000000000001</v>
+      </c>
+      <c r="B120">
+        <v>5.3261000000000003</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>-1.2447999999999999</v>
+      </c>
+      <c r="B121">
+        <v>6.2507000000000001</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>3.4245000000000001</v>
+      </c>
+      <c r="B122">
+        <v>6.6551</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>-0.24349000000000001</v>
+      </c>
+      <c r="B123">
+        <v>6.6458000000000004</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>0.44078000000000001</v>
+      </c>
+      <c r="B124">
+        <v>7.9283000000000001</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>-2.6391</v>
+      </c>
+      <c r="B125">
+        <v>8.0973000000000006</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>-2.3586999999999998</v>
+      </c>
+      <c r="B126">
+        <v>6.7244000000000002</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>-0.29820999999999998</v>
+      </c>
+      <c r="B127">
+        <v>7.7424999999999997</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>0.2064</v>
+      </c>
+      <c r="B128">
+        <v>5.6398999999999999</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>-6.2709000000000001E-2</v>
+      </c>
+      <c r="B129">
+        <v>7.1692</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>-0.75112000000000001</v>
+      </c>
+      <c r="B130">
+        <v>5.3795999999999999</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>-4.1966000000000001</v>
+      </c>
+      <c r="B131">
+        <v>7.3112000000000004</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>-1.3851</v>
+      </c>
+      <c r="B132">
+        <v>7.3079000000000001</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>-1.2433000000000001</v>
+      </c>
+      <c r="B133">
+        <v>6.7415000000000003</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>-3.4838</v>
+      </c>
+      <c r="B134">
+        <v>5.9019000000000004</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>0.73157000000000005</v>
+      </c>
+      <c r="B135">
+        <v>8.3719000000000001</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>3.4891000000000001</v>
+      </c>
+      <c r="B136">
+        <v>6.0837000000000003</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>0.36953000000000003</v>
+      </c>
+      <c r="B137">
+        <v>8.1122999999999994</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>2.0045999999999999</v>
+      </c>
+      <c r="B138">
+        <v>8.2377000000000002</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>1.472</v>
+      </c>
+      <c r="B139">
+        <v>7.8106999999999998</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>0.44899</v>
+      </c>
+      <c r="B140">
+        <v>4.3196000000000003</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>-1.8145</v>
+      </c>
+      <c r="B141">
+        <v>7.1866000000000003</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>1.5091000000000001</v>
+      </c>
+      <c r="B142">
+        <v>5.6124999999999998</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>1.9186999999999999E-2</v>
+      </c>
+      <c r="B143">
+        <v>7.1703999999999999</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>-1.0736000000000001</v>
+      </c>
+      <c r="B144">
+        <v>5.8327999999999998</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>1.2839</v>
+      </c>
+      <c r="B145">
+        <v>8.3519000000000005</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>0.38447999999999999</v>
+      </c>
+      <c r="B146">
+        <v>8.4903999999999993</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>0.18622</v>
+      </c>
+      <c r="B147">
+        <v>5.2854999999999999</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>-2.1381999999999999</v>
+      </c>
+      <c r="B148">
+        <v>9.3945000000000007</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>0.40365000000000001</v>
+      </c>
+      <c r="B149">
+        <v>3.6059000000000001</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>0.41133999999999998</v>
+      </c>
+      <c r="B150">
+        <v>8.1539999999999999</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>-1.0168999999999999</v>
+      </c>
+      <c r="B151">
+        <v>7.0453999999999999</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>-0.39874999999999999</v>
+      </c>
+      <c r="B152">
+        <v>9.6041000000000007</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>-0.38773999999999997</v>
+      </c>
+      <c r="B153">
+        <v>7.6352000000000002</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>-2.3912</v>
+      </c>
+      <c r="B154">
+        <v>6.9077999999999999</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>1.1592</v>
+      </c>
+      <c r="B155">
+        <v>6.1957000000000004</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>0.80295000000000005</v>
+      </c>
+      <c r="B156">
+        <v>7.4625000000000004</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>-0.50136999999999998</v>
+      </c>
+      <c r="B157">
+        <v>7.0537000000000001</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>-1.0142</v>
+      </c>
+      <c r="B158">
+        <v>7.0223000000000004</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>1.0497000000000001</v>
+      </c>
+      <c r="B159">
+        <v>7.2782</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>-0.32423000000000002</v>
+      </c>
+      <c r="B160">
+        <v>6.5629999999999997</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>0.63905000000000001</v>
+      </c>
+      <c r="B161">
+        <v>7.4343000000000004</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>-1.7726999999999999</v>
+      </c>
+      <c r="B162">
+        <v>10.773</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>-1.0456000000000001</v>
+      </c>
+      <c r="B163">
+        <v>7.7679</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>0.98448000000000002</v>
+      </c>
+      <c r="B164">
+        <v>7.2564000000000002</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>-1.3092999999999999</v>
+      </c>
+      <c r="B165">
+        <v>7.7613000000000003</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>2.4382000000000001</v>
+      </c>
+      <c r="B166">
+        <v>9.3594000000000008</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>0.66474999999999995</v>
+      </c>
+      <c r="B167">
+        <v>7.5023</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>-0.29153000000000001</v>
+      </c>
+      <c r="B168">
+        <v>7.3954000000000004</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>-0.40511000000000003</v>
+      </c>
+      <c r="B169">
+        <v>6.3773</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>1.8423</v>
+      </c>
+      <c r="B170">
+        <v>9.8557000000000006</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>-0.67113999999999996</v>
+      </c>
+      <c r="B171">
+        <v>5.2979000000000003</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>-1.5149999999999999</v>
+      </c>
+      <c r="B172">
+        <v>4.8201999999999998</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>1.5622</v>
+      </c>
+      <c r="B173">
+        <v>6.9450000000000003</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>-0.60007999999999995</v>
+      </c>
+      <c r="B174">
+        <v>9.1329999999999991</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>-1.2813000000000001</v>
+      </c>
+      <c r="B175">
+        <v>5.8882000000000003</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>-1.3354E-2</v>
+      </c>
+      <c r="B176">
+        <v>8.8171999999999997</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>0.93498000000000003</v>
+      </c>
+      <c r="B177">
+        <v>7.4805000000000001</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>0.34715000000000001</v>
+      </c>
+      <c r="B178">
+        <v>7.5250000000000004</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>-3.2982</v>
+      </c>
+      <c r="B179">
+        <v>8.4213000000000005</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>-0.10365000000000001</v>
+      </c>
+      <c r="B180">
+        <v>2.9085000000000001</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>0.55830000000000002</v>
+      </c>
+      <c r="B181">
+        <v>8.8766999999999996</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>-0.64358000000000004</v>
+      </c>
+      <c r="B182">
+        <v>5.6195000000000004</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>-0.73845000000000005</v>
+      </c>
+      <c r="B183">
+        <v>5.1436999999999999</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>-0.61058999999999997</v>
+      </c>
+      <c r="B184">
+        <v>5.9051</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>1.5488999999999999</v>
+      </c>
+      <c r="B185">
+        <v>9.3622999999999994</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>1.8884000000000001</v>
+      </c>
+      <c r="B186">
+        <v>7.5258000000000003</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>1.7390000000000001</v>
+      </c>
+      <c r="B187">
+        <v>7.7599</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>-0.84153</v>
+      </c>
+      <c r="B188">
+        <v>9.1088000000000005</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>0.47903000000000001</v>
+      </c>
+      <c r="B189">
+        <v>6.2313000000000001</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>1.788</v>
+      </c>
+      <c r="B190">
+        <v>6.2622999999999998</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>1.881</v>
+      </c>
+      <c r="B191">
+        <v>8.7662999999999993</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>0.76387000000000005</v>
+      </c>
+      <c r="B192">
+        <v>5.4058999999999999</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>-3.2555000000000001</v>
+      </c>
+      <c r="B193">
+        <v>6.3734000000000002</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>0.44098999999999999</v>
+      </c>
+      <c r="B194">
+        <v>5.42</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>-1.9051</v>
+      </c>
+      <c r="B195">
+        <v>7.4077999999999999</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>2.7793999999999999</v>
+      </c>
+      <c r="B196">
+        <v>8.9573999999999998</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>0.26691999999999999</v>
+      </c>
+      <c r="B197">
+        <v>5.1233000000000004</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>1.5987</v>
+      </c>
+      <c r="B198">
+        <v>8.3206000000000007</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>-1.1593</v>
+      </c>
+      <c r="B199">
+        <v>4.1429999999999998</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>-1.1818</v>
+      </c>
+      <c r="B200">
+        <v>5.8849</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>9.0908999999999995</v>
+      </c>
+      <c r="B201">
+        <v>1.1856</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>2.6581000000000001</v>
+      </c>
+      <c r="B202">
+        <v>-1.1002000000000001</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>6.3083</v>
+      </c>
+      <c r="B203">
+        <v>0.32579000000000002</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>7.7850999999999999</v>
+      </c>
+      <c r="B204">
+        <v>-0.30320999999999998</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>6.5594000000000001</v>
+      </c>
+      <c r="B205">
+        <v>0.12071</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>9.7386999999999997</v>
+      </c>
+      <c r="B206">
+        <v>-1.7491000000000001</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>8.0052000000000003</v>
+      </c>
+      <c r="B207">
+        <v>0.97629999999999995</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>8.5549999999999997</v>
+      </c>
+      <c r="B208">
+        <v>0.26173999999999997</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>6.1829000000000001</v>
+      </c>
+      <c r="B209">
+        <v>0.22023999999999999</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>5.1052999999999997</v>
+      </c>
+      <c r="B210">
+        <v>0.16142000000000001</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>10.121</v>
+      </c>
+      <c r="B211">
+        <v>1.3682000000000001</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>6.8666</v>
+      </c>
+      <c r="B212">
+        <v>-1.5494000000000001</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>0.59233999999999998</v>
+      </c>
+      <c r="B213">
+        <v>-0.41386000000000001</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>6.2042999999999999</v>
+      </c>
+      <c r="B214">
+        <v>-1.2637</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>4.4698000000000002</v>
+      </c>
+      <c r="B215">
+        <v>-1.4774</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>5.3109999999999999</v>
+      </c>
+      <c r="B216">
+        <v>1.4975000000000001</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>9.3961000000000006</v>
+      </c>
+      <c r="B217">
+        <v>-1.7038</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>7.1394000000000002</v>
+      </c>
+      <c r="B218">
+        <v>0.65608</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>6.1736000000000004</v>
+      </c>
+      <c r="B219">
+        <v>1.1924999999999999</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>8.8644999999999996</v>
+      </c>
+      <c r="B220">
+        <v>-0.33678000000000002</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>9.6234999999999999</v>
+      </c>
+      <c r="B221">
+        <v>0.58186000000000004</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>11.244</v>
+      </c>
+      <c r="B222">
+        <v>-1.5265</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>6.5049000000000001</v>
+      </c>
+      <c r="B223">
+        <v>0.85338999999999998</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>7.2203999999999997</v>
+      </c>
+      <c r="B224">
+        <v>0.10126</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>6.7493999999999996</v>
+      </c>
+      <c r="B225">
+        <v>0.39095000000000002</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>4.4325999999999999</v>
+      </c>
+      <c r="B226">
+        <v>2.1009000000000002</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>7.8643999999999998</v>
+      </c>
+      <c r="B227">
+        <v>1.6732</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>8.1755999999999993</v>
+      </c>
+      <c r="B228">
+        <v>-0.28410999999999997</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>4.6748000000000003</v>
+      </c>
+      <c r="B229">
+        <v>0.35915999999999998</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>10.266999999999999</v>
+      </c>
+      <c r="B230">
+        <v>-0.80637000000000003</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>8.6980000000000004</v>
+      </c>
+      <c r="B231">
+        <v>-1.8159999999999999E-3</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>8.0671999999999997</v>
+      </c>
+      <c r="B232">
+        <v>1.3523000000000001</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>5.9889999999999999</v>
+      </c>
+      <c r="B233">
+        <v>-0.88804000000000005</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>6.6154999999999999</v>
+      </c>
+      <c r="B234">
+        <v>-0.87836000000000003</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>9.7263000000000002</v>
+      </c>
+      <c r="B235">
+        <v>0.5363</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>9.4192</v>
+      </c>
+      <c r="B236">
+        <v>-0.22089</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>8.9999000000000002</v>
+      </c>
+      <c r="B237">
+        <v>0.63570000000000004</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>8.0568000000000008</v>
+      </c>
+      <c r="B238">
+        <v>-0.41291</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>8.6090999999999998</v>
+      </c>
+      <c r="B239">
+        <v>4.6144999999999999E-2</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>2.5038999999999998</v>
+      </c>
+      <c r="B240">
+        <v>-0.92256000000000005</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>6.6189</v>
+      </c>
+      <c r="B241">
+        <v>-1.0841000000000001</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>4.5664999999999996</v>
+      </c>
+      <c r="B242">
+        <v>-1.1660999999999999</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>9.0612999999999992</v>
+      </c>
+      <c r="B243">
+        <v>1.0021</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>4.3785999999999996</v>
+      </c>
+      <c r="B244">
+        <v>0.26157999999999998</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>5.6478999999999999</v>
+      </c>
+      <c r="B245">
+        <v>-0.39215</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>4.4203999999999999</v>
+      </c>
+      <c r="B246">
+        <v>1.4787999999999999</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>5.5510000000000002</v>
+      </c>
+      <c r="B247">
+        <v>0.81745999999999996</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>8.2914999999999992</v>
+      </c>
+      <c r="B248">
+        <v>1.1536999999999999</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>7.1816000000000004</v>
+      </c>
+      <c r="B249">
+        <v>1.0711999999999999</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>8.9252000000000002</v>
+      </c>
+      <c r="B250">
+        <v>0.40473999999999999</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>6.3213999999999997</v>
+      </c>
+      <c r="B251">
+        <v>0.82286999999999999</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>11.305</v>
+      </c>
+      <c r="B252">
+        <v>-8.6313000000000001E-2</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>10.045999999999999</v>
+      </c>
+      <c r="B253">
+        <v>0.64002999999999999</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>5.4092000000000002</v>
+      </c>
+      <c r="B254">
+        <v>6.3718999999999998E-2</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>5.5339</v>
+      </c>
+      <c r="B255">
+        <v>-1.1254999999999999</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>4.8555999999999999</v>
+      </c>
+      <c r="B256">
+        <v>0.14945</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>6.0400999999999998</v>
+      </c>
+      <c r="B257">
+        <v>1.0889</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>7.0998000000000001</v>
+      </c>
+      <c r="B258">
+        <v>0.40033000000000002</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>6.5004999999999997</v>
+      </c>
+      <c r="B259">
+        <v>-5.9537E-2</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>6.5895000000000001</v>
+      </c>
+      <c r="B260">
+        <v>0.13067000000000001</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>5.1112000000000002</v>
+      </c>
+      <c r="B261">
+        <v>1.0960000000000001</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>9.8026</v>
+      </c>
+      <c r="B262">
+        <v>5.7061000000000001E-2</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>6.8289999999999997</v>
+      </c>
+      <c r="B263">
+        <v>1.3748</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>6.8742000000000001</v>
+      </c>
+      <c r="B264">
+        <v>1.0564</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>7.4991000000000003</v>
+      </c>
+      <c r="B265">
+        <v>-0.29565999999999998</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>9.1672999999999991</v>
+      </c>
+      <c r="B266">
+        <v>-0.42958000000000002</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>4.6416000000000004</v>
+      </c>
+      <c r="B267">
+        <v>-0.23355000000000001</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>8.8122000000000007</v>
+      </c>
+      <c r="B268">
+        <v>2.1764999999999999</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>8.2509999999999994</v>
+      </c>
+      <c r="B269">
+        <v>-0.41258</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>10.773</v>
+      </c>
+      <c r="B270">
+        <v>0.34688000000000002</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>9.7788000000000004</v>
+      </c>
+      <c r="B271">
+        <v>0.185</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>6.8968999999999996</v>
+      </c>
+      <c r="B272">
+        <v>-1.6109</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <v>5.6566000000000001</v>
+      </c>
+      <c r="B273">
+        <v>-1.5683</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <v>7.2507000000000001</v>
+      </c>
+      <c r="B274">
+        <v>0.38022</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A275">
+        <v>8.2559000000000005</v>
+      </c>
+      <c r="B275">
+        <v>-1.8181</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <v>8.9641999999999999</v>
+      </c>
+      <c r="B276">
+        <v>0.37724000000000002</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <v>7.6829999999999998</v>
+      </c>
+      <c r="B277">
+        <v>-0.58016000000000001</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A278">
+        <v>5.4863</v>
+      </c>
+      <c r="B278">
+        <v>-0.76817000000000002</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <v>7.4691999999999998</v>
+      </c>
+      <c r="B279">
+        <v>1.0645</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <v>3.9607999999999999</v>
+      </c>
+      <c r="B280">
+        <v>-0.46461999999999998</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A281">
+        <v>5.2247000000000003</v>
+      </c>
+      <c r="B281">
+        <v>-0.75427999999999995</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A282">
+        <v>1.4202999999999999</v>
+      </c>
+      <c r="B282">
+        <v>8.4548999999999999E-2</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A283">
+        <v>4.6879</v>
+      </c>
+      <c r="B283">
+        <v>1.6085</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A284">
+        <v>7.5023</v>
+      </c>
+      <c r="B284">
+        <v>-0.62670999999999999</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A285">
+        <v>7.5877999999999997</v>
+      </c>
+      <c r="B285">
+        <v>0.70489000000000002</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A286">
+        <v>7.2205000000000004</v>
+      </c>
+      <c r="B286">
+        <v>-0.32096999999999998</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A287">
+        <v>8.7941000000000003</v>
+      </c>
+      <c r="B287">
+        <v>0.89951999999999999</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A288">
+        <v>6.9714</v>
+      </c>
+      <c r="B288">
+        <v>0.49453000000000003</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A289">
+        <v>7.2024999999999997</v>
+      </c>
+      <c r="B289">
+        <v>1.2206999999999999</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A290">
+        <v>7.2592999999999996</v>
+      </c>
+      <c r="B290">
+        <v>-1.4388000000000001</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A291">
+        <v>7.3029999999999999</v>
+      </c>
+      <c r="B291">
+        <v>0.88732999999999995</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A292">
+        <v>6.3891999999999998</v>
+      </c>
+      <c r="B292">
+        <v>-0.94116999999999995</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A293">
+        <v>11.738</v>
+      </c>
+      <c r="B293">
+        <v>1.1229</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A294">
+        <v>7.2986000000000004</v>
+      </c>
+      <c r="B294">
+        <v>2.3656999999999999</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A295">
+        <v>2.8972000000000002</v>
+      </c>
+      <c r="B295">
+        <v>9.4883999999999996E-2</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A296">
+        <v>4.5381999999999998</v>
+      </c>
+      <c r="B296">
+        <v>-1.0838000000000001</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A297">
+        <v>7.7672999999999996</v>
+      </c>
+      <c r="B297">
+        <v>-1.3456999999999999</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A298">
+        <v>6.0873999999999997</v>
+      </c>
+      <c r="B298">
+        <v>-0.46960000000000002</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A299">
+        <v>9.1734000000000009</v>
+      </c>
+      <c r="B299">
+        <v>2.6765000000000001E-2</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A300">
+        <v>6.7674000000000003</v>
+      </c>
+      <c r="B300">
+        <v>0.60024</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A301">
+        <v>5.7392000000000003</v>
+      </c>
+      <c r="B301">
+        <v>-0.68608000000000002</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A302">
+        <v>5.6265000000000001</v>
+      </c>
+      <c r="B302">
+        <v>-0.38815</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A303">
+        <v>11.708</v>
+      </c>
+      <c r="B303">
+        <v>-0.62119000000000002</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A304">
+        <v>8.36</v>
+      </c>
+      <c r="B304">
+        <v>-0.17086000000000001</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A305">
+        <v>7.5785</v>
+      </c>
+      <c r="B305">
+        <v>-1.0338000000000001</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A306">
+        <v>8.3584999999999994</v>
+      </c>
+      <c r="B306">
+        <v>2.3807</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A307">
+        <v>9.2962000000000007</v>
+      </c>
+      <c r="B307">
+        <v>1.9189000000000001</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A308">
+        <v>7.8829000000000002</v>
+      </c>
+      <c r="B308">
+        <v>1.0323</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A309">
+        <v>7.9890999999999996</v>
+      </c>
+      <c r="B309">
+        <v>0.51170000000000004</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A310">
+        <v>9.4629999999999992</v>
+      </c>
+      <c r="B310">
+        <v>-0.76171</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A311">
+        <v>5.0571999999999999</v>
+      </c>
+      <c r="B311">
+        <v>1.0986</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A312">
+        <v>8.1795000000000009</v>
+      </c>
+      <c r="B312">
+        <v>-1.0607</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A313">
+        <v>7.0702999999999996</v>
+      </c>
+      <c r="B313">
+        <v>-0.68115999999999999</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A314">
+        <v>6.1233000000000004</v>
+      </c>
+      <c r="B314">
+        <v>0.49009000000000003</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A315">
+        <v>8.4596999999999998</v>
+      </c>
+      <c r="B315">
+        <v>0.23418</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A316">
+        <v>1.5761000000000001</v>
+      </c>
+      <c r="B316">
+        <v>0.12803</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A317">
+        <v>6.9135</v>
+      </c>
+      <c r="B317">
+        <v>-0.20988999999999999</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A318">
+        <v>8.4062999999999999</v>
+      </c>
+      <c r="B318">
+        <v>1.1765000000000001</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A319">
+        <v>3.7793000000000001</v>
+      </c>
+      <c r="B319">
+        <v>0.10961</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A320">
+        <v>8.0855999999999995</v>
+      </c>
+      <c r="B320">
+        <v>0.43926999999999999</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A321">
+        <v>4.2091000000000003</v>
+      </c>
+      <c r="B321">
+        <v>-0.36675999999999997</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A322">
+        <v>10.438000000000001</v>
+      </c>
+      <c r="B322">
+        <v>1.1517999999999999</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A323">
+        <v>8.3842999999999996</v>
+      </c>
+      <c r="B323">
+        <v>4.28E-4</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A324">
+        <v>6.9585999999999997</v>
+      </c>
+      <c r="B324">
+        <v>0.10477</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A325">
+        <v>5.2587000000000002</v>
+      </c>
+      <c r="B325">
+        <v>1.0833999999999999</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A326">
+        <v>6.4478999999999997</v>
+      </c>
+      <c r="B326">
+        <v>6.0696E-2</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A327">
+        <v>6.8140999999999998</v>
+      </c>
+      <c r="B327">
+        <v>1.5169999999999999</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A328">
+        <v>5.8689999999999998</v>
+      </c>
+      <c r="B328">
+        <v>-0.39283000000000001</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A329">
+        <v>6.2648000000000001</v>
+      </c>
+      <c r="B329">
+        <v>-1.3448</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A330">
+        <v>4.6742999999999997</v>
+      </c>
+      <c r="B330">
+        <v>1.1447000000000001</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A331">
+        <v>3.9018999999999999</v>
+      </c>
+      <c r="B331">
+        <v>2.545E-2</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A332">
+        <v>12.348000000000001</v>
+      </c>
+      <c r="B332">
+        <v>0.78391</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A333">
+        <v>3.4628000000000001</v>
+      </c>
+      <c r="B333">
+        <v>-0.21254999999999999</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A334">
+        <v>8.5831</v>
+      </c>
+      <c r="B334">
+        <v>1.1171</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A335">
+        <v>10.615</v>
+      </c>
+      <c r="B335">
+        <v>-0.74782000000000004</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A336">
+        <v>7.8697999999999997</v>
+      </c>
+      <c r="B336">
+        <v>0.58282</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A337">
+        <v>11.412000000000001</v>
+      </c>
+      <c r="B337">
+        <v>1.4933000000000001</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A338">
+        <v>5.7927999999999997</v>
+      </c>
+      <c r="B338">
+        <v>-1.5041</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A339">
+        <v>8.2027000000000001</v>
+      </c>
+      <c r="B339">
+        <v>-0.87466999999999995</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A340">
+        <v>3.9274</v>
+      </c>
+      <c r="B340">
+        <v>0.85667000000000004</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A341">
+        <v>6.8696000000000002</v>
+      </c>
+      <c r="B341">
+        <v>-1.0742</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A342">
+        <v>7.6048999999999998</v>
+      </c>
+      <c r="B342">
+        <v>-0.87475000000000003</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A343">
+        <v>10.347</v>
+      </c>
+      <c r="B343">
+        <v>-1.0221</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A344">
+        <v>6.9660000000000002</v>
+      </c>
+      <c r="B344">
+        <v>-0.97201000000000004</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A345">
+        <v>5.6786000000000003</v>
+      </c>
+      <c r="B345">
+        <v>-3.2818000000000001</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A346">
+        <v>5.8148999999999997</v>
+      </c>
+      <c r="B346">
+        <v>1.0581</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A347">
+        <v>7.4218999999999999</v>
+      </c>
+      <c r="B347">
+        <v>0.44912000000000002</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A348">
+        <v>9.5465999999999998</v>
+      </c>
+      <c r="B348">
+        <v>0.53373999999999999</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A349">
+        <v>9.6105</v>
+      </c>
+      <c r="B349">
+        <v>1.3453999999999999</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A350">
+        <v>7.3936000000000002</v>
+      </c>
+      <c r="B350">
+        <v>1.0112000000000001</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A351">
+        <v>6.3635000000000002</v>
+      </c>
+      <c r="B351">
+        <v>0.42262</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A352">
+        <v>6.3407999999999998</v>
+      </c>
+      <c r="B352">
+        <v>-1.319</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A353">
+        <v>5.1353</v>
+      </c>
+      <c r="B353">
+        <v>-1.1077999999999999</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A354">
+        <v>7.6627000000000001</v>
+      </c>
+      <c r="B354">
+        <v>-1.3704000000000001</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A355">
+        <v>6.0096999999999996</v>
+      </c>
+      <c r="B355">
+        <v>1.2442</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A356">
+        <v>3.7829000000000002</v>
+      </c>
+      <c r="B356">
+        <v>-0.10782</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A357">
+        <v>6.0277000000000003</v>
+      </c>
+      <c r="B357">
+        <v>-0.82550000000000001</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A358">
+        <v>9.0684000000000005</v>
+      </c>
+      <c r="B358">
+        <v>0.61082000000000003</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A359">
+        <v>7.7647000000000004</v>
+      </c>
+      <c r="B359">
+        <v>-0.63988</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A360">
+        <v>8.7255000000000003</v>
+      </c>
+      <c r="B360">
+        <v>-0.98014000000000001</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A361">
+        <v>5.8678999999999997</v>
+      </c>
+      <c r="B361">
+        <v>-1.5478000000000001</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A362">
+        <v>9.4908000000000001</v>
+      </c>
+      <c r="B362">
+        <v>-0.34222999999999998</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A363">
+        <v>8.4284999999999997</v>
+      </c>
+      <c r="B363">
+        <v>-0.28878999999999999</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A364">
+        <v>6.9622000000000002</v>
+      </c>
+      <c r="B364">
+        <v>-0.33168999999999998</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A365">
+        <v>7.6159999999999997</v>
+      </c>
+      <c r="B365">
+        <v>0.66530999999999996</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A366">
+        <v>5.5571999999999999</v>
+      </c>
+      <c r="B366">
+        <v>-0.82045000000000001</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A367">
+        <v>10.962</v>
+      </c>
+      <c r="B367">
+        <v>-1.9051</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A368">
+        <v>8.4229000000000003</v>
+      </c>
+      <c r="B368">
+        <v>-0.3876</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A369">
+        <v>6.0616000000000003</v>
+      </c>
+      <c r="B369">
+        <v>-1.4258</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A370">
+        <v>7.2359999999999998</v>
+      </c>
+      <c r="B370">
+        <v>-0.93872</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A371">
+        <v>5.3914999999999997</v>
+      </c>
+      <c r="B371">
+        <v>2.3641999999999999</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A372">
+        <v>6.4016999999999999</v>
+      </c>
+      <c r="B372">
+        <v>1.2947</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A373">
+        <v>3.3359000000000001</v>
+      </c>
+      <c r="B373">
+        <v>-0.70071000000000006</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A374">
+        <v>5.1506999999999996</v>
+      </c>
+      <c r="B374">
+        <v>-0.73319000000000001</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A375">
+        <v>7.4324000000000003</v>
+      </c>
+      <c r="B375">
+        <v>-0.78113999999999995</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A376">
+        <v>4.7504999999999997</v>
+      </c>
+      <c r="B376">
+        <v>-0.47556999999999999</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A377">
+        <v>9.1404999999999994</v>
+      </c>
+      <c r="B377">
+        <v>-1.0972999999999999</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A378">
+        <v>5.2454999999999998</v>
+      </c>
+      <c r="B378">
+        <v>0.12187000000000001</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A379">
+        <v>7.9269999999999996</v>
+      </c>
+      <c r="B379">
+        <v>-5.1517E-2</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A380">
+        <v>4.4587000000000003</v>
+      </c>
+      <c r="B380">
+        <v>-0.14954000000000001</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A381">
+        <v>6.5270999999999999</v>
+      </c>
+      <c r="B381">
+        <v>2.1964999999999999</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A382">
+        <v>9.2955000000000005</v>
+      </c>
+      <c r="B382">
+        <v>1.1889000000000001</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A383">
+        <v>7.3262999999999998</v>
+      </c>
+      <c r="B383">
+        <v>0.38058999999999998</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A384">
+        <v>6.0618999999999996</v>
+      </c>
+      <c r="B384">
+        <v>-0.21673999999999999</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A385">
+        <v>9.9954999999999998</v>
+      </c>
+      <c r="B385">
+        <v>8.2617999999999997E-2</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A386">
+        <v>7.1757</v>
+      </c>
+      <c r="B386">
+        <v>-0.48377999999999999</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A387">
+        <v>6.4124999999999996</v>
+      </c>
+      <c r="B387">
+        <v>-1.1228</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A388">
+        <v>5.1012000000000004</v>
+      </c>
+      <c r="B388">
+        <v>-0.15218000000000001</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A389">
+        <v>9.1159999999999997</v>
+      </c>
+      <c r="B389">
+        <v>-0.66717000000000004</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A390">
+        <v>7.5305999999999997</v>
+      </c>
+      <c r="B390">
+        <v>1.1012</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A391">
+        <v>5.3910999999999998</v>
+      </c>
+      <c r="B391">
+        <v>6.4037999999999998E-2</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A392">
+        <v>8.0526999999999997</v>
+      </c>
+      <c r="B392">
+        <v>1.1708000000000001</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A393">
+        <v>7.5278999999999998</v>
+      </c>
+      <c r="B393">
+        <v>-0.89234000000000002</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A394">
+        <v>4.6760000000000002</v>
+      </c>
+      <c r="B394">
+        <v>7.4697E-2</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A395">
+        <v>6.7007000000000003</v>
+      </c>
+      <c r="B395">
+        <v>-7.064E-3</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A396">
+        <v>6.5989000000000004</v>
+      </c>
+      <c r="B396">
+        <v>-0.31318000000000001</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A397">
+        <v>7.0523999999999996</v>
+      </c>
+      <c r="B397">
+        <v>0.70757999999999999</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A398">
+        <v>7.1048999999999998</v>
+      </c>
+      <c r="B398">
+        <v>1.149</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A399">
+        <v>7.0345000000000004</v>
+      </c>
+      <c r="B399">
+        <v>1.0817000000000001</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A400">
+        <v>5.5259999999999998</v>
+      </c>
+      <c r="B400">
+        <v>-1.1020000000000001</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A401">
+        <v>4.9305000000000003</v>
+      </c>
+      <c r="B401">
+        <v>0.30596000000000001</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A402">
+        <v>5.3129999999999997</v>
+      </c>
+      <c r="B402">
+        <v>1.0790999999999999</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A403">
+        <v>5.5143000000000004</v>
+      </c>
+      <c r="B403">
+        <v>-0.77542999999999995</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A404">
+        <v>6.4889999999999999</v>
+      </c>
+      <c r="B404">
+        <v>0.92937000000000003</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A405">
+        <v>8.4543999999999997</v>
+      </c>
+      <c r="B405">
+        <v>0.54125999999999996</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A406">
+        <v>5.9653999999999998</v>
+      </c>
+      <c r="B406">
+        <v>0.14956</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A407">
+        <v>8.6687999999999992</v>
+      </c>
+      <c r="B407">
+        <v>-0.49431999999999998</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A408">
+        <v>8.5970999999999993</v>
+      </c>
+      <c r="B408">
+        <v>-0.57489000000000001</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A409">
+        <v>7.8470000000000004</v>
+      </c>
+      <c r="B409">
+        <v>-2.0632000000000001</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A410">
+        <v>5.1026999999999996</v>
+      </c>
+      <c r="B410">
+        <v>0.92820999999999998</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A411">
+        <v>8.2797000000000001</v>
+      </c>
+      <c r="B411">
+        <v>0.88185999999999998</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A412">
+        <v>10.411</v>
+      </c>
+      <c r="B412">
+        <v>4.9903000000000003E-2</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A413">
+        <v>7.4951999999999996</v>
+      </c>
+      <c r="B413">
+        <v>-0.36415999999999998</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A414">
+        <v>3.6389</v>
+      </c>
+      <c r="B414">
+        <v>1.6322000000000001</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A415">
+        <v>7.9034000000000004</v>
+      </c>
+      <c r="B415">
+        <v>-3.9961000000000002</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A416">
+        <v>5.9855</v>
+      </c>
+      <c r="B416">
+        <v>-2.2622</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A417">
+        <v>7.0229999999999997</v>
+      </c>
+      <c r="B417">
+        <v>-0.67708999999999997</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A418">
+        <v>8.0218000000000007</v>
+      </c>
+      <c r="B418">
+        <v>0.86931999999999998</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A419">
+        <v>5.2876000000000003</v>
+      </c>
+      <c r="B419">
+        <v>-0.97523000000000004</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A420">
+        <v>9.7497000000000007</v>
+      </c>
+      <c r="B420">
+        <v>1.7071000000000001</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A421">
+        <v>8.7324000000000002</v>
+      </c>
+      <c r="B421">
+        <v>-2.7E-2</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A422">
+        <v>8.1371000000000002</v>
+      </c>
+      <c r="B422">
+        <v>0.25291999999999998</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A423">
+        <v>7.1561000000000003</v>
+      </c>
+      <c r="B423">
+        <v>0.20430999999999999</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A424">
+        <v>5.4451999999999998</v>
+      </c>
+      <c r="B424">
+        <v>5.6737000000000003E-2</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A425">
+        <v>7.0468999999999999</v>
+      </c>
+      <c r="B425">
+        <v>-0.35154999999999997</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A426">
+        <v>4.5004999999999997</v>
+      </c>
+      <c r="B426">
+        <v>-0.89341000000000004</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A427">
+        <v>6.7586000000000004</v>
+      </c>
+      <c r="B427">
+        <v>-0.96811999999999998</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A428">
+        <v>8.7788000000000004</v>
+      </c>
+      <c r="B428">
+        <v>0.40993000000000002</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A429">
+        <v>8.1252999999999993</v>
+      </c>
+      <c r="B429">
+        <v>-1.3008</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A430">
+        <v>5.0744999999999996</v>
+      </c>
+      <c r="B430">
+        <v>1.0894999999999999</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A431">
+        <v>7.2157999999999998</v>
+      </c>
+      <c r="B431">
+        <v>-2.1892999999999998</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A432">
+        <v>8.0015999999999998</v>
+      </c>
+      <c r="B432">
+        <v>1.5296000000000001</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A433">
+        <v>10.286</v>
+      </c>
+      <c r="B433">
+        <v>-0.29008</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A434">
+        <v>5.8147000000000002</v>
+      </c>
+      <c r="B434">
+        <v>1.6404000000000001</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A435">
+        <v>6.8224</v>
+      </c>
+      <c r="B435">
+        <v>-0.47200999999999999</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A436">
+        <v>3.4573</v>
+      </c>
+      <c r="B436">
+        <v>-0.41045999999999999</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A437">
+        <v>8.6359999999999992</v>
+      </c>
+      <c r="B437">
+        <v>0.46212999999999999</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A438">
+        <v>7.4114000000000004</v>
+      </c>
+      <c r="B438">
+        <v>0.78249999999999997</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A439">
+        <v>8.9122000000000003</v>
+      </c>
+      <c r="B439">
+        <v>1.2444999999999999</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A440">
+        <v>7.9875999999999996</v>
+      </c>
+      <c r="B440">
+        <v>-0.83423999999999998</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A441">
+        <v>5.8653000000000004</v>
+      </c>
+      <c r="B441">
+        <v>0.33355000000000001</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A442">
+        <v>2.9483999999999999</v>
+      </c>
+      <c r="B442">
+        <v>-1.3507</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A443">
+        <v>7.8173000000000004</v>
+      </c>
+      <c r="B443">
+        <v>-0.31111</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A444">
+        <v>4.3201000000000001</v>
+      </c>
+      <c r="B444">
+        <v>-1.7392000000000001E-2</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A445">
+        <v>7.8087</v>
+      </c>
+      <c r="B445">
+        <v>0.97516000000000003</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A446">
+        <v>7.3468</v>
+      </c>
+      <c r="B446">
+        <v>1.4633</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A447">
+        <v>7.8837000000000002</v>
+      </c>
+      <c r="B447">
+        <v>3.8233000000000001</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A448">
+        <v>7.3164999999999996</v>
+      </c>
+      <c r="B448">
+        <v>-1.6002000000000001</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A449">
+        <v>9.2226999999999997</v>
+      </c>
+      <c r="B449">
+        <v>1.3727</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A450">
+        <v>4.4592000000000001</v>
+      </c>
+      <c r="B450">
+        <v>1.3327</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A451">
+        <v>8.173</v>
+      </c>
+      <c r="B451">
+        <v>-0.25934000000000001</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A452">
+        <v>8.9852000000000007</v>
+      </c>
+      <c r="B452">
+        <v>-0.17666000000000001</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A453">
+        <v>6.4534000000000002</v>
+      </c>
+      <c r="B453">
+        <v>7.8139E-2</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A454">
+        <v>5.1778000000000004</v>
+      </c>
+      <c r="B454">
+        <v>-0.43811</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A455">
+        <v>0.96328999999999998</v>
+      </c>
+      <c r="B455">
+        <v>0.22214999999999999</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A456">
+        <v>3.2875999999999999</v>
+      </c>
+      <c r="B456">
+        <v>1.2068000000000001</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A457">
+        <v>6.2092000000000001</v>
+      </c>
+      <c r="B457">
+        <v>-1.1720999999999999</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A458">
+        <v>8.5487000000000002</v>
+      </c>
+      <c r="B458">
+        <v>1.1847000000000001</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A459">
+        <v>7.5092999999999996</v>
+      </c>
+      <c r="B459">
+        <v>0.28133000000000002</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A460">
+        <v>8.4945000000000004</v>
+      </c>
+      <c r="B460">
+        <v>-1.3717999999999999</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A461">
+        <v>7.6391</v>
+      </c>
+      <c r="B461">
+        <v>1.113</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A462">
+        <v>5.3127000000000004</v>
+      </c>
+      <c r="B462">
+        <v>-0.66635999999999995</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A463">
+        <v>6.1302000000000003</v>
+      </c>
+      <c r="B463">
+        <v>0.85665999999999998</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A464">
+        <v>6.7037000000000004</v>
+      </c>
+      <c r="B464">
+        <v>0.75195000000000001</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A465">
+        <v>9.6447000000000003</v>
+      </c>
+      <c r="B465">
+        <v>0.71360999999999997</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A466">
+        <v>7.2385999999999999</v>
+      </c>
+      <c r="B466">
+        <v>-1.337</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A467">
+        <v>7.6033999999999997</v>
+      </c>
+      <c r="B467">
+        <v>-1.3867</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A468">
+        <v>5.6897000000000002</v>
+      </c>
+      <c r="B468">
+        <v>1.0044999999999999</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A469">
+        <v>3.1534</v>
+      </c>
+      <c r="B469">
+        <v>-0.83121</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A470">
+        <v>8.5580999999999996</v>
+      </c>
+      <c r="B470">
+        <v>1.0405</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A471">
+        <v>5.6783000000000001</v>
+      </c>
+      <c r="B471">
+        <v>-1.5770999999999999</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A472">
+        <v>5.8125</v>
+      </c>
+      <c r="B472">
+        <v>0.28913</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A473">
+        <v>6.7496999999999998</v>
+      </c>
+      <c r="B473">
+        <v>-1.3452</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A474">
+        <v>7.3354999999999997</v>
+      </c>
+      <c r="B474">
+        <v>-0.62029999999999996</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A475">
+        <v>7.3094000000000001</v>
+      </c>
+      <c r="B475">
+        <v>0.18196000000000001</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A476">
+        <v>7.3917999999999999</v>
+      </c>
+      <c r="B476">
+        <v>0.46625</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A477">
+        <v>7.3586</v>
+      </c>
+      <c r="B477">
+        <v>0.77788999999999997</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A478">
+        <v>5.3921999999999999</v>
+      </c>
+      <c r="B478">
+        <v>-0.83992999999999995</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A479">
+        <v>7.8730000000000002</v>
+      </c>
+      <c r="B479">
+        <v>-3.4645000000000002E-2</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A480">
+        <v>8.2904</v>
+      </c>
+      <c r="B480">
+        <v>0.23247999999999999</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A481">
+        <v>7.1181999999999999</v>
+      </c>
+      <c r="B481">
+        <v>2.1421999999999999</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A482">
+        <v>5.2866999999999997</v>
+      </c>
+      <c r="B482">
+        <v>-0.22301000000000001</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A483">
+        <v>5.3342999999999998</v>
+      </c>
+      <c r="B483">
+        <v>0.45458999999999999</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A484">
+        <v>5.6830999999999996</v>
+      </c>
+      <c r="B484">
+        <v>-1.5519000000000001</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A485">
+        <v>8.8231999999999999</v>
+      </c>
+      <c r="B485">
+        <v>0.69099999999999995</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A486">
+        <v>7.9718999999999998</v>
+      </c>
+      <c r="B486">
+        <v>-1.5464</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A487">
+        <v>6.2624000000000004</v>
+      </c>
+      <c r="B487">
+        <v>-0.42416999999999999</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A488">
+        <v>7.2986000000000004</v>
+      </c>
+      <c r="B488">
+        <v>0.19681999999999999</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A489">
+        <v>5.5603999999999996</v>
+      </c>
+      <c r="B489">
+        <v>0.43719999999999998</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A490">
+        <v>5.9942000000000002</v>
+      </c>
+      <c r="B490">
+        <v>-0.80672999999999995</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A491">
+        <v>9.9719999999999995</v>
+      </c>
+      <c r="B491">
+        <v>-0.25727</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A492">
+        <v>9.9792000000000005</v>
+      </c>
+      <c r="B492">
+        <v>-0.86026000000000002</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A493">
+        <v>2.9521999999999999</v>
+      </c>
+      <c r="B493">
+        <v>-1.7314000000000001</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A494">
+        <v>9.4431999999999992</v>
+      </c>
+      <c r="B494">
+        <v>0.68405000000000005</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A495">
+        <v>6.8377999999999997</v>
+      </c>
+      <c r="B495">
+        <v>8.4883E-2</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A496">
+        <v>8.9185999999999996</v>
+      </c>
+      <c r="B496">
+        <v>0.38025999999999999</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A497">
+        <v>5.9249999999999998</v>
+      </c>
+      <c r="B497">
+        <v>-0.36931000000000003</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A498">
+        <v>6.1121999999999996</v>
+      </c>
+      <c r="B498">
+        <v>-0.99534</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A499">
+        <v>7.8944999999999999</v>
+      </c>
+      <c r="B499">
+        <v>-1.864E-3</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A500">
+        <v>5.7728000000000002</v>
+      </c>
+      <c r="B500">
+        <v>0.17093</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>